--- a/biology/Zoologie/Chabertia_ovina/Chabertia_ovina.xlsx
+++ b/biology/Zoologie/Chabertia_ovina/Chabertia_ovina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chabertia ovina est une espèce de la famille des Strongylidae. Il s'agit d'un parasite du mouton que l'on rencontre partout dans le monde mais plus fréquemment dans les régions tempérées.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon les sources, cette espèce est attribuée à l'entomologiste danois Johan Christian Fabricius soit en 1788[1], sous le protonyme de Sclerostoma ovina, soit en 1794 [2], sous le protonyme de Strongylus ovinus. Enfin GBIF[3] donne Louis-Joseph Alcide Railliet et Albert Henry, 1909, ce qui correspond à la date à laquelle ils ont créé le genre Chabertia et ont renommé cette espèce sous le taxon actuel de Chabertia ovina.
-Chabertia ovina a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon les sources, cette espèce est attribuée à l'entomologiste danois Johan Christian Fabricius soit en 1788, sous le protonyme de Sclerostoma ovina, soit en 1794 , sous le protonyme de Strongylus ovinus. Enfin GBIF donne Louis-Joseph Alcide Railliet et Albert Henry, 1909, ce qui correspond à la date à laquelle ils ont créé le genre Chabertia et ont renommé cette espèce sous le taxon actuel de Chabertia ovina.
+Chabertia ovina a pour synonymes :
 Sclerostoma ovina Fabricius, 1788
 Strongylus ovinus Fabricius, 1794</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, ovina, fait référence au Mouton, classé dans le genre des ovins.
 </t>
